--- a/Code/Results/Cases/Case_0_155/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_155/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9713689071140453</v>
+        <v>1.040112400451204</v>
       </c>
       <c r="D2">
-        <v>0.9800557201847799</v>
+        <v>1.042756791677176</v>
       </c>
       <c r="E2">
-        <v>0.979208134824837</v>
+        <v>1.038298766652766</v>
       </c>
       <c r="F2">
-        <v>0.9466374971933846</v>
+        <v>1.038860077740769</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035881429403214</v>
+        <v>1.035744144718386</v>
       </c>
       <c r="J2">
-        <v>0.9944410445293761</v>
+        <v>1.045200767621688</v>
       </c>
       <c r="K2">
-        <v>0.9918000855635161</v>
+        <v>1.045532579356565</v>
       </c>
       <c r="L2">
-        <v>0.9909649398427196</v>
+        <v>1.041087196765013</v>
       </c>
       <c r="M2">
-        <v>0.9588939585651883</v>
+        <v>1.041646909558917</v>
       </c>
       <c r="N2">
-        <v>0.99585326487659</v>
+        <v>1.046685072597914</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9834866277254674</v>
+        <v>1.042139196835556</v>
       </c>
       <c r="D3">
-        <v>0.9914170910097403</v>
+        <v>1.044698423744397</v>
       </c>
       <c r="E3">
-        <v>0.9897072793686962</v>
+        <v>1.040074930108549</v>
       </c>
       <c r="F3">
-        <v>0.9619845099993325</v>
+        <v>1.041528044174889</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040010213988432</v>
+        <v>1.036269092923192</v>
       </c>
       <c r="J3">
-        <v>1.004437815757653</v>
+        <v>1.046867671618152</v>
       </c>
       <c r="K3">
-        <v>1.00216098263436</v>
+        <v>1.047282150267733</v>
       </c>
       <c r="L3">
-        <v>1.000473573825407</v>
+        <v>1.042670793847464</v>
       </c>
       <c r="M3">
-        <v>0.9731280790955569</v>
+        <v>1.044120080775687</v>
       </c>
       <c r="N3">
-        <v>1.005864232666656</v>
+        <v>1.04835434378925</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.990919954006711</v>
+        <v>1.043443843690455</v>
       </c>
       <c r="D4">
-        <v>0.9983914119833756</v>
+        <v>1.04594835631137</v>
       </c>
       <c r="E4">
-        <v>0.9961495480928834</v>
+        <v>1.041217752684511</v>
       </c>
       <c r="F4">
-        <v>0.9713840547906499</v>
+        <v>1.043246635451796</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042520416036061</v>
+        <v>1.036604341202923</v>
       </c>
       <c r="J4">
-        <v>1.010558815172837</v>
+        <v>1.047939329639</v>
       </c>
       <c r="K4">
-        <v>1.008509290094814</v>
+        <v>1.048407420259627</v>
       </c>
       <c r="L4">
-        <v>1.006294667904283</v>
+        <v>1.043688593441235</v>
       </c>
       <c r="M4">
-        <v>0.9818405756976188</v>
+        <v>1.045712411235023</v>
       </c>
       <c r="N4">
-        <v>1.011993924603099</v>
+        <v>1.049427523687409</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9939569104937626</v>
+        <v>1.043990718833816</v>
       </c>
       <c r="D5">
-        <v>1.001241901404708</v>
+        <v>1.046472321333063</v>
       </c>
       <c r="E5">
-        <v>0.9987818670596769</v>
+        <v>1.04169667682586</v>
       </c>
       <c r="F5">
-        <v>0.9752217985779529</v>
+        <v>1.043967324649433</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043540502549957</v>
+        <v>1.03674423076857</v>
       </c>
       <c r="J5">
-        <v>1.013056870488033</v>
+        <v>1.048388223881883</v>
       </c>
       <c r="K5">
-        <v>1.011101136289957</v>
+        <v>1.048878882803012</v>
       </c>
       <c r="L5">
-        <v>1.008670046231027</v>
+        <v>1.0441148557749</v>
       </c>
       <c r="M5">
-        <v>0.9853963957822673</v>
+        <v>1.046379965654163</v>
       </c>
       <c r="N5">
-        <v>1.014495527443373</v>
+        <v>1.049877055411605</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9944619171463135</v>
+        <v>1.044082448877178</v>
       </c>
       <c r="D6">
-        <v>1.001715960270059</v>
+        <v>1.046560209982315</v>
       </c>
       <c r="E6">
-        <v>0.9992195990941529</v>
+        <v>1.041777002158716</v>
       </c>
       <c r="F6">
-        <v>0.9758598426637378</v>
+        <v>1.044088227084168</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043709804835501</v>
+        <v>1.036767657665983</v>
       </c>
       <c r="J6">
-        <v>1.013472102791016</v>
+        <v>1.048463500456658</v>
       </c>
       <c r="K6">
-        <v>1.011532018455706</v>
+        <v>1.048957950469064</v>
       </c>
       <c r="L6">
-        <v>1.009064869351112</v>
+        <v>1.044186332920156</v>
       </c>
       <c r="M6">
-        <v>0.985987483069115</v>
+        <v>1.046491943224301</v>
       </c>
       <c r="N6">
-        <v>1.014911349423854</v>
+        <v>1.049952438887751</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9909608683108808</v>
+        <v>1.04345115729565</v>
       </c>
       <c r="D7">
-        <v>0.9984298101022709</v>
+        <v>1.045955363432821</v>
       </c>
       <c r="E7">
-        <v>0.9961850102009447</v>
+        <v>1.041224158016826</v>
       </c>
       <c r="F7">
-        <v>0.9714357662756962</v>
+        <v>1.043256272366006</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042534180677818</v>
+        <v>1.036606214520043</v>
       </c>
       <c r="J7">
-        <v>1.010592480248235</v>
+        <v>1.047945334152584</v>
       </c>
       <c r="K7">
-        <v>1.008544215097762</v>
+        <v>1.048413726213576</v>
       </c>
       <c r="L7">
-        <v>1.006326680886789</v>
+        <v>1.043694295507515</v>
       </c>
       <c r="M7">
-        <v>0.9818884941400033</v>
+        <v>1.045721338379013</v>
       </c>
       <c r="N7">
-        <v>1.012027637486765</v>
+        <v>1.049433536728091</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9755548590248254</v>
+        <v>1.04079880081964</v>
       </c>
       <c r="D8">
-        <v>0.9839792500140968</v>
+        <v>1.043414327684659</v>
       </c>
       <c r="E8">
-        <v>0.98283446082204</v>
+        <v>1.038900388933691</v>
       </c>
       <c r="F8">
-        <v>0.9519428237464994</v>
+        <v>1.039763367796689</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037312451004969</v>
+        <v>1.035922477216266</v>
       </c>
       <c r="J8">
-        <v>0.9978967338623783</v>
+        <v>1.0457655613232</v>
       </c>
       <c r="K8">
-        <v>0.9953806964981219</v>
+        <v>1.046125286214149</v>
       </c>
       <c r="L8">
-        <v>0.994252082556078</v>
+        <v>1.04162382621558</v>
       </c>
       <c r="M8">
-        <v>0.9638156629698741</v>
+        <v>1.042484410300535</v>
       </c>
       <c r="N8">
-        <v>0.999313861684818</v>
+        <v>1.047250668371265</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9447439221023964</v>
+        <v>1.036071107083995</v>
       </c>
       <c r="D9">
-        <v>0.9551292176692011</v>
+        <v>1.038885905261862</v>
       </c>
       <c r="E9">
-        <v>0.956160220610114</v>
+        <v>1.034754601430111</v>
       </c>
       <c r="F9">
-        <v>0.9127674893506293</v>
+        <v>1.03354663941961</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026680980156279</v>
+        <v>1.034683212850377</v>
       </c>
       <c r="J9">
-        <v>0.9724110372889987</v>
+        <v>1.041869971239623</v>
       </c>
       <c r="K9">
-        <v>0.9689948122261332</v>
+        <v>1.042039097496148</v>
       </c>
       <c r="L9">
-        <v>0.9700070057739502</v>
+        <v>1.037921247217443</v>
       </c>
       <c r="M9">
-        <v>0.92745442604818</v>
+        <v>1.036717241200082</v>
       </c>
       <c r="N9">
-        <v>0.9737919724990542</v>
+        <v>1.04334954610294</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9207211308047981</v>
+        <v>1.032880772880517</v>
       </c>
       <c r="D10">
-        <v>0.9326844559989345</v>
+        <v>1.035830653760057</v>
       </c>
       <c r="E10">
-        <v>0.9354007045944496</v>
+        <v>1.031954429523377</v>
       </c>
       <c r="F10">
-        <v>0.8819564088114151</v>
+        <v>1.029357302956077</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018267405937525</v>
+        <v>1.033833154128627</v>
       </c>
       <c r="J10">
-        <v>0.952476012484429</v>
+        <v>1.039234256499885</v>
       </c>
       <c r="K10">
-        <v>0.9483856575520633</v>
+        <v>1.039276857497733</v>
       </c>
       <c r="L10">
-        <v>0.9510432357621748</v>
+        <v>1.035414544989935</v>
       </c>
       <c r="M10">
-        <v>0.8988431029698433</v>
+        <v>1.032826804209674</v>
       </c>
       <c r="N10">
-        <v>0.9538286376726826</v>
+        <v>1.040710088345951</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9091438336004444</v>
+        <v>1.031489663312196</v>
       </c>
       <c r="D11">
-        <v>0.9218838690331597</v>
+        <v>1.034498599105757</v>
       </c>
       <c r="E11">
-        <v>0.9254117302039616</v>
+        <v>1.030732855434125</v>
       </c>
       <c r="F11">
-        <v>0.8669951829860073</v>
+        <v>1.027531888360049</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01418515280987</v>
+        <v>1.033459238631617</v>
       </c>
       <c r="J11">
-        <v>0.9428539140712782</v>
+        <v>1.038083347720465</v>
       </c>
       <c r="K11">
-        <v>0.9384463124069007</v>
+        <v>1.038071277542722</v>
       </c>
       <c r="L11">
-        <v>0.9418920929541869</v>
+        <v>1.034319595633216</v>
       </c>
       <c r="M11">
-        <v>0.8849523021721912</v>
+        <v>1.031130671138465</v>
       </c>
       <c r="N11">
-        <v>0.9441928747761147</v>
+        <v>1.039557545144052</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9046222047441745</v>
+        <v>1.030971444720128</v>
       </c>
       <c r="D12">
-        <v>0.9176685417252388</v>
+        <v>1.034002403571806</v>
       </c>
       <c r="E12">
-        <v>0.9215135837139854</v>
+        <v>1.03027770440337</v>
       </c>
       <c r="F12">
-        <v>0.8611286016926213</v>
+        <v>1.02685206968833</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.012586919819605</v>
+        <v>1.033319458668881</v>
       </c>
       <c r="J12">
-        <v>0.9390937268856543</v>
+        <v>1.037654363681859</v>
       </c>
       <c r="K12">
-        <v>0.9345634895454972</v>
+        <v>1.037622002401601</v>
       </c>
       <c r="L12">
-        <v>0.9383165339829058</v>
+        <v>1.033911413209556</v>
       </c>
       <c r="M12">
-        <v>0.8795065412856311</v>
+        <v>1.030498855754735</v>
       </c>
       <c r="N12">
-        <v>0.9404273476933879</v>
+        <v>1.039127951898906</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9056030446039861</v>
+        <v>1.031082672915135</v>
       </c>
       <c r="D13">
-        <v>0.9185827958736484</v>
+        <v>1.034108903743732</v>
       </c>
       <c r="E13">
-        <v>0.9223590197706796</v>
+        <v>1.030375400024907</v>
       </c>
       <c r="F13">
-        <v>0.8624023712252227</v>
+        <v>1.02699797463663</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.012933779998987</v>
+        <v>1.033349482506117</v>
       </c>
       <c r="J13">
-        <v>0.9399094907439947</v>
+        <v>1.037746450059624</v>
       </c>
       <c r="K13">
-        <v>0.9354057964407014</v>
+        <v>1.037718440574009</v>
       </c>
       <c r="L13">
-        <v>0.9390922115188137</v>
+        <v>1.033999036833555</v>
       </c>
       <c r="M13">
-        <v>0.8806888767486223</v>
+        <v>1.03063446456741</v>
       </c>
       <c r="N13">
-        <v>0.9412442700299765</v>
+        <v>1.03922016904989</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9087749131355081</v>
+        <v>1.031446858036551</v>
       </c>
       <c r="D14">
-        <v>0.9215398771593521</v>
+        <v>1.034457612462851</v>
       </c>
       <c r="E14">
-        <v>0.9250936111844854</v>
+        <v>1.030695261382021</v>
       </c>
       <c r="F14">
-        <v>0.8665170418358878</v>
+        <v>1.027475730996929</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.014054828515891</v>
+        <v>1.033447702639666</v>
       </c>
       <c r="J14">
-        <v>0.942547163275683</v>
+        <v>1.038047918293307</v>
       </c>
       <c r="K14">
-        <v>0.9381295294769934</v>
+        <v>1.038034170522448</v>
       </c>
       <c r="L14">
-        <v>0.941600390254285</v>
+        <v>1.034285885343907</v>
       </c>
       <c r="M14">
-        <v>0.8845084317681943</v>
+        <v>1.031078482078262</v>
       </c>
       <c r="N14">
-        <v>0.9438856883592051</v>
+        <v>1.039522065403044</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9106982364939811</v>
+        <v>1.031671044568452</v>
       </c>
       <c r="D15">
-        <v>0.9233333598974733</v>
+        <v>1.03467227514354</v>
       </c>
       <c r="E15">
-        <v>0.9267522187107374</v>
+        <v>1.03089215127337</v>
       </c>
       <c r="F15">
-        <v>0.8690087945469901</v>
+        <v>1.027769854831814</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.014734105513553</v>
+        <v>1.033508100786118</v>
       </c>
       <c r="J15">
-        <v>0.9441462852056705</v>
+        <v>1.038233464829898</v>
       </c>
       <c r="K15">
-        <v>0.9397810044155208</v>
+        <v>1.038228506286869</v>
       </c>
       <c r="L15">
-        <v>0.9431210902522829</v>
+        <v>1.03446242632028</v>
       </c>
       <c r="M15">
-        <v>0.8868216368934181</v>
+        <v>1.031351816079777</v>
       </c>
       <c r="N15">
-        <v>0.9454870812257553</v>
+        <v>1.039707875437</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9214612799079146</v>
+        <v>1.03297288858951</v>
       </c>
       <c r="D16">
-        <v>0.9333753141232868</v>
+        <v>1.035918862294379</v>
       </c>
       <c r="E16">
-        <v>0.9360396848000607</v>
+        <v>1.032035306673764</v>
       </c>
       <c r="F16">
-        <v>0.8829101651145405</v>
+        <v>1.029478203914281</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.018527855647175</v>
+        <v>1.033857845509616</v>
       </c>
       <c r="J16">
-        <v>0.9530908695221191</v>
+        <v>1.03931043239163</v>
       </c>
       <c r="K16">
-        <v>0.9490209591199084</v>
+        <v>1.039356664068093</v>
       </c>
       <c r="L16">
-        <v>0.9516280608905233</v>
+        <v>1.035487009179078</v>
       </c>
       <c r="M16">
-        <v>0.8997287206906547</v>
+        <v>1.032939122485777</v>
       </c>
       <c r="N16">
-        <v>0.9544443678778913</v>
+        <v>1.040786372416199</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.927871408373921</v>
+        <v>1.033786879388087</v>
       </c>
       <c r="D17">
-        <v>0.9393603628555811</v>
+        <v>1.036698344678012</v>
       </c>
       <c r="E17">
-        <v>0.9415754003698833</v>
+        <v>1.032749918802562</v>
       </c>
       <c r="F17">
-        <v>0.8911575430317911</v>
+        <v>1.030546707412703</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.020780533939355</v>
+        <v>1.034075658919049</v>
       </c>
       <c r="J17">
-        <v>0.9584142882187793</v>
+        <v>1.039983381052987</v>
       </c>
       <c r="K17">
-        <v>0.9545222805913786</v>
+        <v>1.040061753056218</v>
       </c>
       <c r="L17">
-        <v>0.9566917178221541</v>
+        <v>1.036127124982388</v>
       </c>
       <c r="M17">
-        <v>0.9073871861797812</v>
+        <v>1.033931663374258</v>
       </c>
       <c r="N17">
-        <v>0.9597753464397053</v>
+        <v>1.041460276741844</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9315006451323701</v>
+        <v>1.034260736164394</v>
       </c>
       <c r="D18">
-        <v>0.9427503576839933</v>
+        <v>1.03715212742867</v>
       </c>
       <c r="E18">
-        <v>0.9447109234744996</v>
+        <v>1.033165866484954</v>
       </c>
       <c r="F18">
-        <v>0.8958173170125842</v>
+        <v>1.031168851540404</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022053435923117</v>
+        <v>1.034202143852595</v>
       </c>
       <c r="J18">
-        <v>0.9614269196603329</v>
+        <v>1.040374974435058</v>
       </c>
       <c r="K18">
-        <v>0.9576363161756895</v>
+        <v>1.040472104526565</v>
       </c>
       <c r="L18">
-        <v>0.9595575194327435</v>
+        <v>1.036499576698134</v>
       </c>
       <c r="M18">
-        <v>0.911714371172642</v>
+        <v>1.034509485636661</v>
       </c>
       <c r="N18">
-        <v>0.9627922561634594</v>
+        <v>1.041852426231433</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9327206141692149</v>
+        <v>1.034422152640892</v>
       </c>
       <c r="D19">
-        <v>0.9438901350574168</v>
+        <v>1.0373067082813</v>
       </c>
       <c r="E19">
-        <v>0.9457651415796601</v>
+        <v>1.033307546926975</v>
       </c>
       <c r="F19">
-        <v>0.8973822065455117</v>
+        <v>1.031380802678088</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022480891368104</v>
+        <v>1.034245177066175</v>
       </c>
       <c r="J19">
-        <v>0.9624393877833458</v>
+        <v>1.040508341727986</v>
       </c>
       <c r="K19">
-        <v>0.9586829839623998</v>
+        <v>1.040611869771632</v>
       </c>
       <c r="L19">
-        <v>0.960520665594274</v>
+        <v>1.036626418695158</v>
       </c>
       <c r="M19">
-        <v>0.9131675759240699</v>
+        <v>1.034706321642136</v>
       </c>
       <c r="N19">
-        <v>0.9638061621073388</v>
+        <v>1.041985982921215</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9271952770670022</v>
+        <v>1.033699642426883</v>
       </c>
       <c r="D20">
-        <v>0.9387289160755169</v>
+        <v>1.036614804522053</v>
       </c>
       <c r="E20">
-        <v>0.9409913545394224</v>
+        <v>1.032673338317299</v>
       </c>
       <c r="F20">
-        <v>0.8902886680912271</v>
+        <v>1.030432180918712</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020543184733731</v>
+        <v>1.034052347830276</v>
       </c>
       <c r="J20">
-        <v>0.9578529213987551</v>
+        <v>1.039911276109612</v>
       </c>
       <c r="K20">
-        <v>0.9539420769469408</v>
+        <v>1.039986198611408</v>
       </c>
       <c r="L20">
-        <v>0.9561577237431831</v>
+        <v>1.036058541734345</v>
       </c>
       <c r="M20">
-        <v>0.9065803346211571</v>
+        <v>1.033825288385411</v>
       </c>
       <c r="N20">
-        <v>0.959213182414407</v>
+        <v>1.041388069401178</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9078474368837095</v>
+        <v>1.031339656330277</v>
       </c>
       <c r="D21">
-        <v>0.9206751210989275</v>
+        <v>1.034354965734823</v>
       </c>
       <c r="E21">
-        <v>0.9242939045042488</v>
+        <v>1.030601109265189</v>
       </c>
       <c r="F21">
-        <v>0.8653145832704167</v>
+        <v>1.027335093278613</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.013727128993491</v>
+        <v>1.033418803975374</v>
       </c>
       <c r="J21">
-        <v>0.9417759486614788</v>
+        <v>1.037959184729858</v>
       </c>
       <c r="K21">
-        <v>0.9373331144997298</v>
+        <v>1.037941236800912</v>
       </c>
       <c r="L21">
-        <v>0.9408670190746294</v>
+        <v>1.034201456477589</v>
       </c>
       <c r="M21">
-        <v>0.8833921797760367</v>
+        <v>1.030947780064264</v>
       </c>
       <c r="N21">
-        <v>0.9431133785317893</v>
+        <v>1.039433205827756</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8943644076985526</v>
+        <v>1.029847146154464</v>
       </c>
       <c r="D22">
-        <v>0.908111878209217</v>
+        <v>1.032925929446692</v>
       </c>
       <c r="E22">
-        <v>0.9126772882116208</v>
+        <v>1.02929007313055</v>
       </c>
       <c r="F22">
-        <v>0.8477657985741389</v>
+        <v>1.025377508787243</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.008954280501547</v>
+        <v>1.033015306757719</v>
       </c>
       <c r="J22">
-        <v>0.9305592906094741</v>
+        <v>1.036723214194466</v>
       </c>
       <c r="K22">
-        <v>0.9257533969220545</v>
+        <v>1.036646968151986</v>
       </c>
       <c r="L22">
-        <v>0.9302026524058081</v>
+        <v>1.03302531213702</v>
       </c>
       <c r="M22">
-        <v>0.8671055050566062</v>
+        <v>1.029128153864921</v>
       </c>
       <c r="N22">
-        <v>0.9318807915387823</v>
+        <v>1.038195480072436</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9016573080647382</v>
+        <v>1.030639193381334</v>
       </c>
       <c r="D23">
-        <v>0.914905402831604</v>
+        <v>1.03368427892366</v>
       </c>
       <c r="E23">
-        <v>0.9189585272222915</v>
+        <v>1.029985863555686</v>
       </c>
       <c r="F23">
-        <v>0.857274140405616</v>
+        <v>1.026416261899555</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.011537883269871</v>
+        <v>1.033229702600125</v>
       </c>
       <c r="J23">
-        <v>0.9366275069628789</v>
+        <v>1.037379255202918</v>
       </c>
       <c r="K23">
-        <v>0.932017232962155</v>
+        <v>1.037333905625778</v>
       </c>
       <c r="L23">
-        <v>0.9359716161740587</v>
+        <v>1.033649628959656</v>
       </c>
       <c r="M23">
-        <v>0.8759289998796991</v>
+        <v>1.030093780793315</v>
       </c>
       <c r="N23">
-        <v>0.9379576254554429</v>
+        <v>1.03885245273437</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9275011275022081</v>
+        <v>1.033739063927131</v>
       </c>
       <c r="D24">
-        <v>0.9390145488760636</v>
+        <v>1.036652555427969</v>
       </c>
       <c r="E24">
-        <v>0.9412555455925016</v>
+        <v>1.032707944439513</v>
       </c>
       <c r="F24">
-        <v>0.8906817366121687</v>
+        <v>1.030483933894757</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.020650558348512</v>
+        <v>1.034062882843638</v>
       </c>
       <c r="J24">
-        <v>0.958106861901633</v>
+        <v>1.039943860089964</v>
       </c>
       <c r="K24">
-        <v>0.9542045362342376</v>
+        <v>1.040020341238391</v>
       </c>
       <c r="L24">
-        <v>0.9563992813538461</v>
+        <v>1.036089534383839</v>
       </c>
       <c r="M24">
-        <v>0.9069453441022849</v>
+        <v>1.033873358091113</v>
       </c>
       <c r="N24">
-        <v>0.9594674835419263</v>
+        <v>1.041420699654519</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9532316313450432</v>
+        <v>1.037299950792748</v>
       </c>
       <c r="D25">
-        <v>0.9630698627520409</v>
+        <v>1.040062849326943</v>
       </c>
       <c r="E25">
-        <v>0.9635037891728543</v>
+        <v>1.035832637134467</v>
       </c>
       <c r="F25">
-        <v>0.9235916022331327</v>
+        <v>1.035161471349466</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029630518755764</v>
+        <v>1.035007747212139</v>
       </c>
       <c r="J25">
-        <v>0.9794423797087398</v>
+        <v>1.042883740514945</v>
       </c>
       <c r="K25">
-        <v>0.9762698675274011</v>
+        <v>1.043102041676549</v>
       </c>
       <c r="L25">
-        <v>0.9766963782411935</v>
+        <v>1.03888506385237</v>
       </c>
       <c r="M25">
-        <v>0.9375044271519927</v>
+        <v>1.038216008700185</v>
       </c>
       <c r="N25">
-        <v>0.9808333002315374</v>
+        <v>1.044364755046913</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_155/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_155/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040112400451204</v>
+        <v>0.9713689071140439</v>
       </c>
       <c r="D2">
-        <v>1.042756791677176</v>
+        <v>0.9800557201847784</v>
       </c>
       <c r="E2">
-        <v>1.038298766652766</v>
+        <v>0.9792081348248358</v>
       </c>
       <c r="F2">
-        <v>1.038860077740769</v>
+        <v>0.9466374971933834</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035744144718386</v>
+        <v>1.035881429403214</v>
       </c>
       <c r="J2">
-        <v>1.045200767621688</v>
+        <v>0.9944410445293748</v>
       </c>
       <c r="K2">
-        <v>1.045532579356565</v>
+        <v>0.9918000855635148</v>
       </c>
       <c r="L2">
-        <v>1.041087196765013</v>
+        <v>0.9909649398427185</v>
       </c>
       <c r="M2">
-        <v>1.041646909558917</v>
+        <v>0.9588939585651871</v>
       </c>
       <c r="N2">
-        <v>1.046685072597914</v>
+        <v>0.9958532648765884</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042139196835556</v>
+        <v>0.9834866277254689</v>
       </c>
       <c r="D3">
-        <v>1.044698423744397</v>
+        <v>0.9914170910097418</v>
       </c>
       <c r="E3">
-        <v>1.040074930108549</v>
+        <v>0.9897072793686974</v>
       </c>
       <c r="F3">
-        <v>1.041528044174889</v>
+        <v>0.9619845099993344</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036269092923192</v>
+        <v>1.040010213988432</v>
       </c>
       <c r="J3">
-        <v>1.046867671618152</v>
+        <v>1.004437815757654</v>
       </c>
       <c r="K3">
-        <v>1.047282150267733</v>
+        <v>1.002160982634362</v>
       </c>
       <c r="L3">
-        <v>1.042670793847464</v>
+        <v>1.000473573825408</v>
       </c>
       <c r="M3">
-        <v>1.044120080775687</v>
+        <v>0.9731280790955588</v>
       </c>
       <c r="N3">
-        <v>1.04835434378925</v>
+        <v>1.005864232666658</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.043443843690455</v>
+        <v>0.9909199540067108</v>
       </c>
       <c r="D4">
-        <v>1.04594835631137</v>
+        <v>0.9983914119833751</v>
       </c>
       <c r="E4">
-        <v>1.041217752684511</v>
+        <v>0.9961495480928836</v>
       </c>
       <c r="F4">
-        <v>1.043246635451796</v>
+        <v>0.9713840547906498</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036604341202923</v>
+        <v>1.042520416036061</v>
       </c>
       <c r="J4">
-        <v>1.047939329639</v>
+        <v>1.010558815172837</v>
       </c>
       <c r="K4">
-        <v>1.048407420259627</v>
+        <v>1.008509290094813</v>
       </c>
       <c r="L4">
-        <v>1.043688593441235</v>
+        <v>1.006294667904283</v>
       </c>
       <c r="M4">
-        <v>1.045712411235023</v>
+        <v>0.9818405756976188</v>
       </c>
       <c r="N4">
-        <v>1.049427523687409</v>
+        <v>1.011993924603099</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043990718833816</v>
+        <v>0.9939569104937613</v>
       </c>
       <c r="D5">
-        <v>1.046472321333063</v>
+        <v>1.001241901404706</v>
       </c>
       <c r="E5">
-        <v>1.04169667682586</v>
+        <v>0.998781867059676</v>
       </c>
       <c r="F5">
-        <v>1.043967324649433</v>
+        <v>0.9752217985779513</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03674423076857</v>
+        <v>1.043540502549957</v>
       </c>
       <c r="J5">
-        <v>1.048388223881883</v>
+        <v>1.013056870488032</v>
       </c>
       <c r="K5">
-        <v>1.048878882803012</v>
+        <v>1.011101136289956</v>
       </c>
       <c r="L5">
-        <v>1.0441148557749</v>
+        <v>1.008670046231027</v>
       </c>
       <c r="M5">
-        <v>1.046379965654163</v>
+        <v>0.985396395782266</v>
       </c>
       <c r="N5">
-        <v>1.049877055411605</v>
+        <v>1.014495527443372</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044082448877178</v>
+        <v>0.9944619171463126</v>
       </c>
       <c r="D6">
-        <v>1.046560209982315</v>
+        <v>1.001715960270058</v>
       </c>
       <c r="E6">
-        <v>1.041777002158716</v>
+        <v>0.9992195990941523</v>
       </c>
       <c r="F6">
-        <v>1.044088227084168</v>
+        <v>0.975859842663736</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036767657665983</v>
+        <v>1.043709804835501</v>
       </c>
       <c r="J6">
-        <v>1.048463500456658</v>
+        <v>1.013472102791015</v>
       </c>
       <c r="K6">
-        <v>1.048957950469064</v>
+        <v>1.011532018455704</v>
       </c>
       <c r="L6">
-        <v>1.044186332920156</v>
+        <v>1.009064869351112</v>
       </c>
       <c r="M6">
-        <v>1.046491943224301</v>
+        <v>0.9859874830691132</v>
       </c>
       <c r="N6">
-        <v>1.049952438887751</v>
+        <v>1.014911349423853</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04345115729565</v>
+        <v>0.99096086831088</v>
       </c>
       <c r="D7">
-        <v>1.045955363432821</v>
+        <v>0.9984298101022703</v>
       </c>
       <c r="E7">
-        <v>1.041224158016826</v>
+        <v>0.9961850102009442</v>
       </c>
       <c r="F7">
-        <v>1.043256272366006</v>
+        <v>0.9714357662756957</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036606214520043</v>
+        <v>1.042534180677818</v>
       </c>
       <c r="J7">
-        <v>1.047945334152584</v>
+        <v>1.010592480248234</v>
       </c>
       <c r="K7">
-        <v>1.048413726213576</v>
+        <v>1.008544215097762</v>
       </c>
       <c r="L7">
-        <v>1.043694295507515</v>
+        <v>1.006326680886788</v>
       </c>
       <c r="M7">
-        <v>1.045721338379013</v>
+        <v>0.9818884941400028</v>
       </c>
       <c r="N7">
-        <v>1.049433536728091</v>
+        <v>1.012027637486764</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04079880081964</v>
+        <v>0.9755548590248246</v>
       </c>
       <c r="D8">
-        <v>1.043414327684659</v>
+        <v>0.9839792500140959</v>
       </c>
       <c r="E8">
-        <v>1.038900388933691</v>
+        <v>0.9828344608220388</v>
       </c>
       <c r="F8">
-        <v>1.039763367796689</v>
+        <v>0.9519428237464975</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035922477216266</v>
+        <v>1.037312451004968</v>
       </c>
       <c r="J8">
-        <v>1.0457655613232</v>
+        <v>0.9978967338623773</v>
       </c>
       <c r="K8">
-        <v>1.046125286214149</v>
+        <v>0.9953806964981209</v>
       </c>
       <c r="L8">
-        <v>1.04162382621558</v>
+        <v>0.9942520825560767</v>
       </c>
       <c r="M8">
-        <v>1.042484410300535</v>
+        <v>0.9638156629698724</v>
       </c>
       <c r="N8">
-        <v>1.047250668371265</v>
+        <v>0.999313861684817</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036071107083995</v>
+        <v>0.9447439221023978</v>
       </c>
       <c r="D9">
-        <v>1.038885905261862</v>
+        <v>0.955129217669202</v>
       </c>
       <c r="E9">
-        <v>1.034754601430111</v>
+        <v>0.9561602206101151</v>
       </c>
       <c r="F9">
-        <v>1.03354663941961</v>
+        <v>0.9127674893506307</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034683212850377</v>
+        <v>1.026680980156279</v>
       </c>
       <c r="J9">
-        <v>1.041869971239623</v>
+        <v>0.9724110372889997</v>
       </c>
       <c r="K9">
-        <v>1.042039097496148</v>
+        <v>0.9689948122261342</v>
       </c>
       <c r="L9">
-        <v>1.037921247217443</v>
+        <v>0.9700070057739513</v>
       </c>
       <c r="M9">
-        <v>1.036717241200082</v>
+        <v>0.9274544260481813</v>
       </c>
       <c r="N9">
-        <v>1.04334954610294</v>
+        <v>0.9737919724990554</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032880772880517</v>
+        <v>0.9207211308047986</v>
       </c>
       <c r="D10">
-        <v>1.035830653760057</v>
+        <v>0.9326844559989349</v>
       </c>
       <c r="E10">
-        <v>1.031954429523377</v>
+        <v>0.9354007045944502</v>
       </c>
       <c r="F10">
-        <v>1.029357302956077</v>
+        <v>0.8819564088114155</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033833154128627</v>
+        <v>1.018267405937525</v>
       </c>
       <c r="J10">
-        <v>1.039234256499885</v>
+        <v>0.9524760124844296</v>
       </c>
       <c r="K10">
-        <v>1.039276857497733</v>
+        <v>0.9483856575520636</v>
       </c>
       <c r="L10">
-        <v>1.035414544989935</v>
+        <v>0.9510432357621754</v>
       </c>
       <c r="M10">
-        <v>1.032826804209674</v>
+        <v>0.8988431029698437</v>
       </c>
       <c r="N10">
-        <v>1.040710088345951</v>
+        <v>0.9538286376726831</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031489663312196</v>
+        <v>0.9091438336004437</v>
       </c>
       <c r="D11">
-        <v>1.034498599105757</v>
+        <v>0.9218838690331588</v>
       </c>
       <c r="E11">
-        <v>1.030732855434125</v>
+        <v>0.9254117302039609</v>
       </c>
       <c r="F11">
-        <v>1.027531888360049</v>
+        <v>0.8669951829860066</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033459238631617</v>
+        <v>1.014185152809869</v>
       </c>
       <c r="J11">
-        <v>1.038083347720465</v>
+        <v>0.9428539140712774</v>
       </c>
       <c r="K11">
-        <v>1.038071277542722</v>
+        <v>0.9384463124068998</v>
       </c>
       <c r="L11">
-        <v>1.034319595633216</v>
+        <v>0.9418920929541859</v>
       </c>
       <c r="M11">
-        <v>1.031130671138465</v>
+        <v>0.8849523021721905</v>
       </c>
       <c r="N11">
-        <v>1.039557545144052</v>
+        <v>0.944192874776114</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030971444720128</v>
+        <v>0.9046222047441739</v>
       </c>
       <c r="D12">
-        <v>1.034002403571806</v>
+        <v>0.917668541725238</v>
       </c>
       <c r="E12">
-        <v>1.03027770440337</v>
+        <v>0.9215135837139844</v>
       </c>
       <c r="F12">
-        <v>1.02685206968833</v>
+        <v>0.8611286016926201</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033319458668881</v>
+        <v>1.012586919819604</v>
       </c>
       <c r="J12">
-        <v>1.037654363681859</v>
+        <v>0.9390937268856534</v>
       </c>
       <c r="K12">
-        <v>1.037622002401601</v>
+        <v>0.9345634895454963</v>
       </c>
       <c r="L12">
-        <v>1.033911413209556</v>
+        <v>0.9383165339829049</v>
       </c>
       <c r="M12">
-        <v>1.030498855754735</v>
+        <v>0.87950654128563</v>
       </c>
       <c r="N12">
-        <v>1.039127951898906</v>
+        <v>0.9404273476933874</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031082672915135</v>
+        <v>0.9056030446039854</v>
       </c>
       <c r="D13">
-        <v>1.034108903743732</v>
+        <v>0.9185827958736478</v>
       </c>
       <c r="E13">
-        <v>1.030375400024907</v>
+        <v>0.9223590197706787</v>
       </c>
       <c r="F13">
-        <v>1.02699797463663</v>
+        <v>0.8624023712252216</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033349482506117</v>
+        <v>1.012933779998987</v>
       </c>
       <c r="J13">
-        <v>1.037746450059624</v>
+        <v>0.939909490743994</v>
       </c>
       <c r="K13">
-        <v>1.037718440574009</v>
+        <v>0.9354057964407007</v>
       </c>
       <c r="L13">
-        <v>1.033999036833555</v>
+        <v>0.9390922115188127</v>
       </c>
       <c r="M13">
-        <v>1.03063446456741</v>
+        <v>0.8806888767486211</v>
       </c>
       <c r="N13">
-        <v>1.03922016904989</v>
+        <v>0.9412442700299758</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031446858036551</v>
+        <v>0.9087749131355092</v>
       </c>
       <c r="D14">
-        <v>1.034457612462851</v>
+        <v>0.9215398771593533</v>
       </c>
       <c r="E14">
-        <v>1.030695261382021</v>
+        <v>0.9250936111844865</v>
       </c>
       <c r="F14">
-        <v>1.027475730996929</v>
+        <v>0.866517041835889</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033447702639666</v>
+        <v>1.014054828515892</v>
       </c>
       <c r="J14">
-        <v>1.038047918293307</v>
+        <v>0.942547163275684</v>
       </c>
       <c r="K14">
-        <v>1.038034170522448</v>
+        <v>0.9381295294769942</v>
       </c>
       <c r="L14">
-        <v>1.034285885343907</v>
+        <v>0.941600390254286</v>
       </c>
       <c r="M14">
-        <v>1.031078482078262</v>
+        <v>0.8845084317681953</v>
       </c>
       <c r="N14">
-        <v>1.039522065403044</v>
+        <v>0.9438856883592059</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031671044568452</v>
+        <v>0.9106982364939799</v>
       </c>
       <c r="D15">
-        <v>1.03467227514354</v>
+        <v>0.9233333598974721</v>
       </c>
       <c r="E15">
-        <v>1.03089215127337</v>
+        <v>0.9267522187107361</v>
       </c>
       <c r="F15">
-        <v>1.027769854831814</v>
+        <v>0.8690087945469878</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033508100786118</v>
+        <v>1.014734105513553</v>
       </c>
       <c r="J15">
-        <v>1.038233464829898</v>
+        <v>0.9441462852056693</v>
       </c>
       <c r="K15">
-        <v>1.038228506286869</v>
+        <v>0.9397810044155194</v>
       </c>
       <c r="L15">
-        <v>1.03446242632028</v>
+        <v>0.9431210902522816</v>
       </c>
       <c r="M15">
-        <v>1.031351816079777</v>
+        <v>0.8868216368934158</v>
       </c>
       <c r="N15">
-        <v>1.039707875437</v>
+        <v>0.945487081225754</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03297288858951</v>
+        <v>0.9214612799079124</v>
       </c>
       <c r="D16">
-        <v>1.035918862294379</v>
+        <v>0.9333753141232849</v>
       </c>
       <c r="E16">
-        <v>1.032035306673764</v>
+        <v>0.9360396848000586</v>
       </c>
       <c r="F16">
-        <v>1.029478203914281</v>
+        <v>0.8829101651145382</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033857845509616</v>
+        <v>1.018527855647174</v>
       </c>
       <c r="J16">
-        <v>1.03931043239163</v>
+        <v>0.9530908695221171</v>
       </c>
       <c r="K16">
-        <v>1.039356664068093</v>
+        <v>0.9490209591199062</v>
       </c>
       <c r="L16">
-        <v>1.035487009179078</v>
+        <v>0.9516280608905213</v>
       </c>
       <c r="M16">
-        <v>1.032939122485777</v>
+        <v>0.8997287206906522</v>
       </c>
       <c r="N16">
-        <v>1.040786372416199</v>
+        <v>0.9544443678778892</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033786879388087</v>
+        <v>0.9278714083739243</v>
       </c>
       <c r="D17">
-        <v>1.036698344678012</v>
+        <v>0.9393603628555843</v>
       </c>
       <c r="E17">
-        <v>1.032749918802562</v>
+        <v>0.9415754003698862</v>
       </c>
       <c r="F17">
-        <v>1.030546707412703</v>
+        <v>0.8911575430317945</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034075658919049</v>
+        <v>1.020780533939356</v>
       </c>
       <c r="J17">
-        <v>1.039983381052987</v>
+        <v>0.9584142882187823</v>
       </c>
       <c r="K17">
-        <v>1.040061753056218</v>
+        <v>0.9545222805913813</v>
       </c>
       <c r="L17">
-        <v>1.036127124982388</v>
+        <v>0.956691717822157</v>
       </c>
       <c r="M17">
-        <v>1.033931663374258</v>
+        <v>0.9073871861797844</v>
       </c>
       <c r="N17">
-        <v>1.041460276741844</v>
+        <v>0.9597753464397082</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034260736164394</v>
+        <v>0.9315006451323709</v>
       </c>
       <c r="D18">
-        <v>1.03715212742867</v>
+        <v>0.9427503576839941</v>
       </c>
       <c r="E18">
-        <v>1.033165866484954</v>
+        <v>0.9447109234744999</v>
       </c>
       <c r="F18">
-        <v>1.031168851540404</v>
+        <v>0.8958173170125856</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034202143852595</v>
+        <v>1.022053435923117</v>
       </c>
       <c r="J18">
-        <v>1.040374974435058</v>
+        <v>0.9614269196603334</v>
       </c>
       <c r="K18">
-        <v>1.040472104526565</v>
+        <v>0.9576363161756902</v>
       </c>
       <c r="L18">
-        <v>1.036499576698134</v>
+        <v>0.9595575194327439</v>
       </c>
       <c r="M18">
-        <v>1.034509485636661</v>
+        <v>0.9117143711726435</v>
       </c>
       <c r="N18">
-        <v>1.041852426231433</v>
+        <v>0.9627922561634604</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C19">
-        <v>1.034422152640892</v>
+        <v>0.932720614169214</v>
       </c>
       <c r="D19">
-        <v>1.0373067082813</v>
+        <v>0.9438901350574163</v>
       </c>
       <c r="E19">
-        <v>1.033307546926975</v>
+        <v>0.9457651415796589</v>
       </c>
       <c r="F19">
-        <v>1.031380802678088</v>
+        <v>0.8973822065455108</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034245177066175</v>
+        <v>1.022480891368103</v>
       </c>
       <c r="J19">
-        <v>1.040508341727986</v>
+        <v>0.9624393877833448</v>
       </c>
       <c r="K19">
-        <v>1.040611869771632</v>
+        <v>0.9586829839623994</v>
       </c>
       <c r="L19">
-        <v>1.036626418695158</v>
+        <v>0.9605206655942732</v>
       </c>
       <c r="M19">
-        <v>1.034706321642136</v>
+        <v>0.9131675759240691</v>
       </c>
       <c r="N19">
-        <v>1.041985982921215</v>
+        <v>0.9638061621073382</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033699642426883</v>
+        <v>0.9271952770670056</v>
       </c>
       <c r="D20">
-        <v>1.036614804522053</v>
+        <v>0.9387289160755203</v>
       </c>
       <c r="E20">
-        <v>1.032673338317299</v>
+        <v>0.9409913545394253</v>
       </c>
       <c r="F20">
-        <v>1.030432180918712</v>
+        <v>0.8902886680912306</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034052347830276</v>
+        <v>1.020543184733732</v>
       </c>
       <c r="J20">
-        <v>1.039911276109612</v>
+        <v>0.9578529213987579</v>
       </c>
       <c r="K20">
-        <v>1.039986198611408</v>
+        <v>0.953942076946944</v>
       </c>
       <c r="L20">
-        <v>1.036058541734345</v>
+        <v>0.9561577237431856</v>
       </c>
       <c r="M20">
-        <v>1.033825288385411</v>
+        <v>0.9065803346211605</v>
       </c>
       <c r="N20">
-        <v>1.041388069401178</v>
+        <v>0.9592131824144098</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031339656330277</v>
+        <v>0.9078474368837086</v>
       </c>
       <c r="D21">
-        <v>1.034354965734823</v>
+        <v>0.9206751210989265</v>
       </c>
       <c r="E21">
-        <v>1.030601109265189</v>
+        <v>0.9242939045042475</v>
       </c>
       <c r="F21">
-        <v>1.027335093278613</v>
+        <v>0.8653145832704158</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033418803975374</v>
+        <v>1.01372712899349</v>
       </c>
       <c r="J21">
-        <v>1.037959184729858</v>
+        <v>0.9417759486614778</v>
       </c>
       <c r="K21">
-        <v>1.037941236800912</v>
+        <v>0.9373331144997288</v>
       </c>
       <c r="L21">
-        <v>1.034201456477589</v>
+        <v>0.9408670190746282</v>
       </c>
       <c r="M21">
-        <v>1.030947780064264</v>
+        <v>0.8833921797760358</v>
       </c>
       <c r="N21">
-        <v>1.039433205827756</v>
+        <v>0.9431133785317883</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029847146154464</v>
+        <v>0.894364407698554</v>
       </c>
       <c r="D22">
-        <v>1.032925929446692</v>
+        <v>0.908111878209218</v>
       </c>
       <c r="E22">
-        <v>1.02929007313055</v>
+        <v>0.9126772882116216</v>
       </c>
       <c r="F22">
-        <v>1.025377508787243</v>
+        <v>0.8477657985741408</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033015306757719</v>
+        <v>1.008954280501547</v>
       </c>
       <c r="J22">
-        <v>1.036723214194466</v>
+        <v>0.9305592906094752</v>
       </c>
       <c r="K22">
-        <v>1.036646968151986</v>
+        <v>0.9257533969220558</v>
       </c>
       <c r="L22">
-        <v>1.03302531213702</v>
+        <v>0.930202652405809</v>
       </c>
       <c r="M22">
-        <v>1.029128153864921</v>
+        <v>0.8671055050566078</v>
       </c>
       <c r="N22">
-        <v>1.038195480072436</v>
+        <v>0.9318807915387832</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030639193381334</v>
+        <v>0.90165730806474</v>
       </c>
       <c r="D23">
-        <v>1.03368427892366</v>
+        <v>0.9149054028316059</v>
       </c>
       <c r="E23">
-        <v>1.029985863555686</v>
+        <v>0.9189585272222929</v>
       </c>
       <c r="F23">
-        <v>1.026416261899555</v>
+        <v>0.8572741404056183</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033229702600125</v>
+        <v>1.011537883269871</v>
       </c>
       <c r="J23">
-        <v>1.037379255202918</v>
+        <v>0.9366275069628807</v>
       </c>
       <c r="K23">
-        <v>1.037333905625778</v>
+        <v>0.9320172329621568</v>
       </c>
       <c r="L23">
-        <v>1.033649628959656</v>
+        <v>0.93597161617406</v>
       </c>
       <c r="M23">
-        <v>1.030093780793315</v>
+        <v>0.8759289998797015</v>
       </c>
       <c r="N23">
-        <v>1.03885245273437</v>
+        <v>0.9379576254554446</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033739063927131</v>
+        <v>0.9275011275022065</v>
       </c>
       <c r="D24">
-        <v>1.036652555427969</v>
+        <v>0.9390145488760619</v>
       </c>
       <c r="E24">
-        <v>1.032707944439513</v>
+        <v>0.9412555455925001</v>
       </c>
       <c r="F24">
-        <v>1.030483933894757</v>
+        <v>0.8906817366121674</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034062882843638</v>
+        <v>1.020650558348512</v>
       </c>
       <c r="J24">
-        <v>1.039943860089964</v>
+        <v>0.9581068619016315</v>
       </c>
       <c r="K24">
-        <v>1.040020341238391</v>
+        <v>0.9542045362342363</v>
       </c>
       <c r="L24">
-        <v>1.036089534383839</v>
+        <v>0.9563992813538446</v>
       </c>
       <c r="M24">
-        <v>1.033873358091113</v>
+        <v>0.9069453441022837</v>
       </c>
       <c r="N24">
-        <v>1.041420699654519</v>
+        <v>0.9594674835419252</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037299950792748</v>
+        <v>0.9532316313450442</v>
       </c>
       <c r="D25">
-        <v>1.040062849326943</v>
+        <v>0.9630698627520414</v>
       </c>
       <c r="E25">
-        <v>1.035832637134467</v>
+        <v>0.9635037891728553</v>
       </c>
       <c r="F25">
-        <v>1.035161471349466</v>
+        <v>0.9235916022331332</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035007747212139</v>
+        <v>1.029630518755764</v>
       </c>
       <c r="J25">
-        <v>1.042883740514945</v>
+        <v>0.9794423797087407</v>
       </c>
       <c r="K25">
-        <v>1.043102041676549</v>
+        <v>0.9762698675274019</v>
       </c>
       <c r="L25">
-        <v>1.03888506385237</v>
+        <v>0.9766963782411944</v>
       </c>
       <c r="M25">
-        <v>1.038216008700185</v>
+        <v>0.937504427151993</v>
       </c>
       <c r="N25">
-        <v>1.044364755046913</v>
+        <v>0.9808333002315383</v>
       </c>
     </row>
   </sheetData>
